--- a/SMMT.xlsx
+++ b/SMMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8FCE22-4C57-4A5D-A922-7A06E05ED19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F946D0A6-B940-425B-8E02-26F2641AC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22200" windowHeight="14805" activeTab="3" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3F18F28E-0E0F-4FAA-9681-D6E3922A5740}</author>
+  </authors>
+  <commentList>
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on HHS 500k/VSLY and 2month PFS added = 85k per patient; checks out with similar drug pricing in NSCLC</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>Main</t>
   </si>
@@ -375,13 +393,25 @@
   </si>
   <si>
     <t>china</t>
+  </si>
+  <si>
+    <t>Competitors</t>
+  </si>
+  <si>
+    <t>TLDR</t>
+  </si>
+  <si>
+    <t>Keytruda expiry 2028; If ivonsertib isnt sig better than keytruda like the china data then profitability erodes and it becomes 2L if patient doesn’t respond to keytruda resulting in 50% or more decrease in drug value. Keytruda previous PFS data 8mo vs placebo 5mo in NSCLC, ivonsertib is similar but China data showed ivonsertib 11mo PFS vs keytruda 6mo, if keytuda was 8mo like previous data still a sig PFS for ivonsertib but is the china data reliable? If the china data repeats then the stock can probably more than double. MOA for Ivonsertib is plausible for beating Keytruda. PK data I havent analyzed yet and need to continue to analyze clinical trial results. Also, is Ivonescimab if it beats Keytruda positioned to be a massive cancer drug with further trials in other cancers, if so this company could be acquired at a large premium. The key here is the further data to see if it will be a 1L or 2L therapy</t>
+  </si>
+  <si>
+    <t>Keytruda (pembrolizumab) PD-1 inhibitor; BNT327 PD-L1/VEGF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -404,6 +434,13 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
@@ -518,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,6 +589,7 @@
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -568,6 +606,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Liam R" id="{28070B57-DEAE-4037-A739-BE132A2403C7}" userId="be0b8782fa6c70c8" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,12 +929,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C47" dT="2025-08-22T10:38:49.42" personId="{28070B57-DEAE-4037-A739-BE132A2403C7}" id="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
+    <text>Based on HHS 500k/VSLY and 2month PFS added = 85k per patient; checks out with similar drug pricing in NSCLC</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B3F6C0-C1E1-4BA1-8058-A5666CB8BCDB}">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:J24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1039,6 +1091,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="2"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -1059,40 +1112,46 @@
       <c r="D16" s="2"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="J17" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
     </row>
   </sheetData>
@@ -1209,7 +1268,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1498,11 +1557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA6D23-FFB8-4503-932E-AC23E51838F4}">
-  <dimension ref="A1:O53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA6D23-FFB8-4503-932E-AC23E51838F4}">
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1575,478 +1634,486 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="20" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="20" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="20" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="20" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
         <v>80</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.35399999999999998</v>
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="E35" s="6">
-        <v>6.2E-2</v>
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36">
-        <v>0.46</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E36" s="6">
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>0.46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>96</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C39" s="20" t="s">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="20" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C42" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C44" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C44">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C45">
         <v>2025</v>
       </c>
-      <c r="D44">
-        <f>C44+1</f>
+      <c r="D45">
+        <f>C45+1</f>
         <v>2026</v>
       </c>
-      <c r="E44">
-        <f t="shared" ref="E44:O44" si="0">D44+1</f>
+      <c r="E45">
+        <f t="shared" ref="E45:O45" si="0">D45+1</f>
         <v>2027</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="L44">
+      <c r="L45">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="M44">
+      <c r="M45">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="N44">
+      <c r="N45">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="O44">
+      <c r="O45">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C46" s="5">
         <v>500000</v>
       </c>
-      <c r="D45" s="5">
-        <f>C45*1.01</f>
+      <c r="D46" s="5">
+        <f>C46*1.01</f>
         <v>505000</v>
       </c>
-      <c r="E45" s="5">
-        <f t="shared" ref="E45:O45" si="1">D45*1.01</f>
+      <c r="E46" s="5">
+        <f t="shared" ref="E46:O46" si="1">D46*1.01</f>
         <v>510050</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F46" s="5">
         <f t="shared" si="1"/>
         <v>515150.5</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G46" s="5">
         <f t="shared" si="1"/>
         <v>520302.005</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H46" s="5">
         <f t="shared" si="1"/>
         <v>525505.02505000005</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I46" s="5">
         <f t="shared" si="1"/>
         <v>530760.07530050003</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J46" s="5">
         <f t="shared" si="1"/>
         <v>536067.67605350504</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K46" s="5">
         <f t="shared" si="1"/>
         <v>541428.35281404015</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L46" s="5">
         <f t="shared" si="1"/>
         <v>546842.63634218054</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M46" s="5">
         <f t="shared" si="1"/>
         <v>552311.06270560238</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N46" s="5">
         <f t="shared" si="1"/>
         <v>557834.17333265836</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O46" s="5">
         <f t="shared" si="1"/>
         <v>563412.51506598492</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="D46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="E46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="F46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="G46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="H46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="I46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="J46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="K46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="L46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="M46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="N46" s="5">
-        <v>70000</v>
-      </c>
-      <c r="O46" s="5">
-        <v>70000</v>
-      </c>
-    </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="D47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="E47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="F47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="G47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="H47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="I47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="J47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="K47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="L47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="M47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="N47" s="5">
+        <v>85000</v>
+      </c>
+      <c r="O47" s="5">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="5">
-        <f>C45*0.2</f>
+      <c r="C48" s="5">
+        <f>C46*0.2</f>
         <v>100000</v>
       </c>
-      <c r="D47" s="5">
-        <f t="shared" ref="D47:O47" si="2">D45*0.2</f>
+      <c r="D48" s="5">
+        <f t="shared" ref="D48:O48" si="2">D46*0.2</f>
         <v>101000</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <f t="shared" si="2"/>
         <v>102010</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F48" s="5">
         <f t="shared" si="2"/>
         <v>103030.1</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G48" s="5">
         <f t="shared" si="2"/>
         <v>104060.40100000001</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H48" s="5">
         <f t="shared" si="2"/>
         <v>105101.00501000002</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I48" s="5">
         <f t="shared" si="2"/>
         <v>106152.01506010001</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J48" s="5">
         <f t="shared" si="2"/>
         <v>107213.53521070101</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K48" s="5">
         <f t="shared" si="2"/>
         <v>108285.67056280804</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L48" s="5">
         <f t="shared" si="2"/>
         <v>109368.52726843611</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M48" s="5">
         <f t="shared" si="2"/>
         <v>110462.21254112048</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N48" s="5">
         <f t="shared" si="2"/>
         <v>111566.83466653168</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O48" s="5">
         <f t="shared" si="2"/>
         <v>112682.50301319698</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="5">
-        <f>(C47*C46)/1000000*0.6</f>
-        <v>4200</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" ref="D48:O48" si="3">(D47*D46)/1000000*0.6</f>
-        <v>4242</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="C49" s="5">
+        <f>(C48*C47)/1000000*0.6</f>
+        <v>5100</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" ref="D49:O49" si="3">(D48*D47)/1000000*0.6</f>
+        <v>5151</v>
+      </c>
+      <c r="E49" s="5">
         <f t="shared" si="3"/>
-        <v>4284.42</v>
-      </c>
-      <c r="F48" s="5">
+        <v>5202.51</v>
+      </c>
+      <c r="F49" s="5">
         <f t="shared" si="3"/>
-        <v>4327.2641999999996</v>
-      </c>
-      <c r="G48" s="5">
+        <v>5254.5350999999991</v>
+      </c>
+      <c r="G49" s="5">
         <f t="shared" si="3"/>
-        <v>4370.5368420000004</v>
-      </c>
-      <c r="H48" s="5">
+        <v>5307.0804510000007</v>
+      </c>
+      <c r="H49" s="5">
         <f t="shared" si="3"/>
-        <v>4414.2422104200004</v>
-      </c>
-      <c r="I48" s="5">
+        <v>5360.1512555100007</v>
+      </c>
+      <c r="I49" s="5">
         <f t="shared" si="3"/>
-        <v>4458.3846325242002</v>
-      </c>
-      <c r="J48" s="5">
+        <v>5413.752768065101</v>
+      </c>
+      <c r="J49" s="5">
         <f t="shared" si="3"/>
-        <v>4502.9684788494424</v>
-      </c>
-      <c r="K48" s="5">
+        <v>5467.8902957457512</v>
+      </c>
+      <c r="K49" s="5">
         <f t="shared" si="3"/>
-        <v>4547.998163637938</v>
-      </c>
-      <c r="L48" s="5">
+        <v>5522.5691987032096</v>
+      </c>
+      <c r="L49" s="5">
         <f t="shared" si="3"/>
-        <v>4593.4781452743164</v>
-      </c>
-      <c r="M48" s="5">
+        <v>5577.794890690242</v>
+      </c>
+      <c r="M49" s="5">
         <f t="shared" si="3"/>
-        <v>4639.41292672706</v>
-      </c>
-      <c r="N48" s="5">
+        <v>5633.5728395971446</v>
+      </c>
+      <c r="N49" s="5">
         <f t="shared" si="3"/>
-        <v>4685.8070559943299</v>
-      </c>
-      <c r="O48" s="5">
+        <v>5689.9085679931159</v>
+      </c>
+      <c r="O49" s="5">
         <f t="shared" si="3"/>
-        <v>4732.6651265542732</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+        <v>5746.8076536730468</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>0.09</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="19">
-        <f>NPV(D50,C48:O48)</f>
-        <v>33010.859372419174</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+      <c r="D52" s="19">
+        <f>NPV(D51,C49:O49)</f>
+        <v>40084.614952223288</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="4">
-        <f>D51/Main!K3</f>
-        <v>44.438320009255172</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D53" s="6">
-        <f>D52/Main!K2-1</f>
-        <v>0.66435655465375176</v>
+      <c r="D53" s="4">
+        <f>D52/Main!K3</f>
+        <v>53.960817154095572</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D54" s="6">
+        <f>D53/Main!K2-1</f>
+        <v>1.0210043877938415</v>
       </c>
     </row>
   </sheetData>
@@ -2055,5 +2122,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SMMT.xlsx
+++ b/SMMT.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F946D0A6-B940-425B-8E02-26F2641AC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5025B9-E2DD-4146-B2D2-838D9E15BF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22200" windowHeight="14805" activeTab="3" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
+    <workbookView xWindow="2520" yWindow="930" windowWidth="22200" windowHeight="14685" activeTab="6" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Literature" sheetId="4" r:id="rId3"/>
-    <sheet name="ivonescimab" sheetId="3" r:id="rId4"/>
+    <sheet name="IP" sheetId="6" r:id="rId3"/>
+    <sheet name="Literature" sheetId="4" r:id="rId4"/>
+    <sheet name="Ivonescimab" sheetId="3" r:id="rId5"/>
+    <sheet name="NSCLC" sheetId="7" r:id="rId6"/>
+    <sheet name="Drugs" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,25 @@
     <author>tc={3F18F28E-0E0F-4FAA-9681-D6E3922A5740}</author>
   </authors>
   <commentList>
-    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on HHS 500k/VSLY and 2month PFS added = 85k per patient; checks out with similar drug pricing in NSCLC</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B9AD64A1-4C53-4EC3-8C82-8A6A553ABDC4}</author>
+  </authors>
+  <commentList>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{B9AD64A1-4C53-4EC3-8C82-8A6A553ABDC4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="292">
   <si>
     <t>Main</t>
   </si>
@@ -230,12 +251,6 @@
     <t>18: Long R, Kuang W, Zhou Q. Ivonescimab plus chemotherapy in advanced or metastatic non‑squamous non‑small cell lung cancer with EGFR variant in China: a cost-effectiveness analysis. Transl Lung Cancer Res. 2025 May 30;14(5):1622-1634. doi: 10.21037/tlcr-2024-1053. Epub 2025 May 22. PMID: 40535084; PMCID: PMC12170261.</t>
   </si>
   <si>
-    <t>3?</t>
-  </si>
-  <si>
-    <t>2?</t>
-  </si>
-  <si>
     <t>17: Zhong T, Zhang L, Huang Z, Pang X, Jin C, Liu W, Du J, Yin W, Chen N, Min J, Xia M, Li B. Design of a fragment crystallizable-engineered tetravalent bispecific antibody targeting programmed cell death-1 and vascular endothelial growth factor with cooperative biological effects. iScience. 2024 Dec 31;28(3):111722. doi: 10.1016/j.isci.2024.111722. PMID: 40034861; PMCID: PMC11872405.</t>
   </si>
   <si>
@@ -278,9 +293,6 @@
     <t>2: Dhillon S. Ivonescimab: First Approval. Drugs. 2024 Sep;84(9):1135-1142. doi: 10.1007/s40265-024-02073-w. Epub 2024 Jul 29. PMID: 39073550.</t>
   </si>
   <si>
-    <t>5?</t>
-  </si>
-  <si>
     <t>1: HARMONi-A Study Investigators; Fang W, Zhao Y, Luo Y, Yang R, Huang Y, He Z, Zhao H, Li M, Li K, Song Q, Du X, Sun Y, Li W, Xu F, Wang Z, Yang K, Fan Y, Liu B, Zhao H, Hu Y, Jia L, Xu S, Yi T, Lv D, Lan H, Li M, Liang W, Wang Y, Yang H, Jia Y, Chen Y, Lu J, Feng J, Liu C, Zhou M, Zhou J, Liu X, Zhou N, He M, Dong X, Chen H, Chen Y, Su H, Li X, Zhang Z, Yang L, Cheng Y, Chen L, Hou X, Zhang Y, Guo J, Wang Z, Lu H, Wu D, Feng W, Li W, Huang J, Wang Y, Song X, Peng J, Liu L, Guo Y, Li W, Lu D, Hu M, Wang ZM, Li B, Xia M, Zhang L. Ivonescimab Plus Chemotherapy in Non-Small Cell Lung Cancer With EGFR Variant: A Randomized Clinical Trial. JAMA. 2024 Aug 20;332(7):561-570. doi: 10.1001/jama.2024.10613. PMID: 38820549; PMCID: PMC11337070.</t>
   </si>
   <si>
@@ -296,18 +308,6 @@
     <t>ivonescimab+chemo vs. placebo+chemo</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>7.1mo</t>
-  </si>
-  <si>
-    <t>4.8mo</t>
-  </si>
-  <si>
     <t>p&lt;0.001</t>
   </si>
   <si>
@@ -320,12 +320,6 @@
     <t>DOR</t>
   </si>
   <si>
-    <t>6.6mo</t>
-  </si>
-  <si>
-    <t>4.2mo</t>
-  </si>
-  <si>
     <t>TEAE</t>
   </si>
   <si>
@@ -335,21 +329,12 @@
     <t>MARIPOSA-2</t>
   </si>
   <si>
-    <t>PFS p.e</t>
-  </si>
-  <si>
-    <t>Phase III "" in NSCLC n=322 NCT:NCT05184712</t>
-  </si>
-  <si>
     <t>NSCLC w/ EGFR-mut advanced or metastatic who failed to EGFR-TKI treatment</t>
   </si>
   <si>
     <t>"not mature"</t>
   </si>
   <si>
-    <t>OS s.e</t>
-  </si>
-  <si>
     <t>Regulatory</t>
   </si>
   <si>
@@ -362,21 +347,12 @@
     <t>Ivonescimab Approved in China</t>
   </si>
   <si>
-    <t>Phase III "HARMONi-2" in NSCLC n= NCT:</t>
-  </si>
-  <si>
     <t>ivonescimab vs. pembrolizumab (keytruda)</t>
   </si>
   <si>
-    <t>p.e PFS</t>
-  </si>
-  <si>
     <t>1L metastatic squamous NSCLC</t>
   </si>
   <si>
-    <t>Phase III "HARMONi" in NSCLC n= NCT:NCT06396065</t>
-  </si>
-  <si>
     <t>Phase III "HARMONi-3" in NSCLC n= NCT:NCT05899608</t>
   </si>
   <si>
@@ -389,29 +365,605 @@
     <t>Akeso</t>
   </si>
   <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
     <t>Competitors</t>
   </si>
   <si>
     <t>TLDR</t>
   </si>
   <si>
-    <t>Keytruda expiry 2028; If ivonsertib isnt sig better than keytruda like the china data then profitability erodes and it becomes 2L if patient doesn’t respond to keytruda resulting in 50% or more decrease in drug value. Keytruda previous PFS data 8mo vs placebo 5mo in NSCLC, ivonsertib is similar but China data showed ivonsertib 11mo PFS vs keytruda 6mo, if keytuda was 8mo like previous data still a sig PFS for ivonsertib but is the china data reliable? If the china data repeats then the stock can probably more than double. MOA for Ivonsertib is plausible for beating Keytruda. PK data I havent analyzed yet and need to continue to analyze clinical trial results. Also, is Ivonescimab if it beats Keytruda positioned to be a massive cancer drug with further trials in other cancers, if so this company could be acquired at a large premium. The key here is the further data to see if it will be a 1L or 2L therapy</t>
-  </si>
-  <si>
-    <t>Keytruda (pembrolizumab) PD-1 inhibitor; BNT327 PD-L1/VEGF</t>
+    <t>~20% NSCLC have EGFR-mutations</t>
+  </si>
+  <si>
+    <t>NCT02151981</t>
+  </si>
+  <si>
+    <t>FLAURA</t>
+  </si>
+  <si>
+    <t>AURA3</t>
+  </si>
+  <si>
+    <t>NCT02296125</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>Ivonescimab</t>
+  </si>
+  <si>
+    <t>Pembrolizumab</t>
+  </si>
+  <si>
+    <t>HR (stratified)</t>
+  </si>
+  <si>
+    <t>can you trust china data?</t>
+  </si>
+  <si>
+    <t>If pembrolizumab performed as usual ~8.8mo PFS it still had 2.3mo PFS improvement</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>Median DOR</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Not Mature</t>
+  </si>
+  <si>
+    <t>&lt;-- reported Sep 7th</t>
+  </si>
+  <si>
+    <t>Phase III "HARMONi-2" in NSCLC n=398 NCT:NCT05499390</t>
+  </si>
+  <si>
+    <t>recruiting</t>
+  </si>
+  <si>
+    <t>1L metastatic NSCLC</t>
+  </si>
+  <si>
+    <t>metastatic NSCLC high PD-L1 expression</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Phase III "HARMONi" in NSCLC n=420 NCT:NCT06396065</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>ivonsescimab vs. pembrolizumab</t>
+  </si>
+  <si>
+    <t>Keytruda expiry 2028; If ivonescimab isnt sig better than keytruda like the china data then profitability erodes and it becomes 2L if patient doesn’t respond to keytruda resulting in 50% or more decrease in drug value. Keytruda previous PFS data 8mo vs placebo 5mo in NSCLC, ivonescimab is similar but China data showed ivonsertib 11mo PFS vs keytruda 6mo, if keytuda was 8mo like previous data still a sig PFS for ivonescimab but is the china data reliable? If the china data repeats then the stock can probably more than double. MOA for ivonescimab is plausible for beating Keytruda. PK data I havent analyzed yet and need to continue to analyze clinical trial results. Also, is Ivonescimab if it beats Keytruda positioned to be a massive cancer drug with further trials in other cancers, if so this company could be acquired at a large premium. The key here is the further data to see if it will be a 1L or 2L therapy</t>
+  </si>
+  <si>
+    <t>ivonescimab+chemo vs. pembrolizumab+chemo</t>
+  </si>
+  <si>
+    <t>ivonescimab+pemetrexed+carboplatin vs. placebo+pemetrexed+carboplatin</t>
+  </si>
+  <si>
+    <t>https://cattendee.abstractsonline.com/meeting/21151/presentation/3905</t>
+  </si>
+  <si>
+    <t>Sep 7th Data</t>
+  </si>
+  <si>
+    <t>metastatic NSCLC progressed after EGFR TKI (like Tagrisso)</t>
+  </si>
+  <si>
+    <t>Phase III "HARMONi-A" in NSCLC n=322 NCT:NCT05184712</t>
+  </si>
+  <si>
+    <t>Phase I/II PK/PD</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Phase III "HARMONi-6" in NSCLC n= NCT:</t>
+  </si>
+  <si>
+    <t>ivonescimab+chemo vs. tislelizumab+chemo</t>
+  </si>
+  <si>
+    <t>Keytruda (pembrolizumab) PD-1 inhibitor; BNT327 PD-L1/VEGF; Tagrisso TKI, Rybrevant (amivantamab), TEVIMBRA (tislelizumab) PD-1i</t>
+  </si>
+  <si>
+    <t>full data later this year</t>
+  </si>
+  <si>
+    <t>Phase III HARMONi-6 full data later in year</t>
+  </si>
+  <si>
+    <t>market pricing in 30% chance of approval</t>
+  </si>
+  <si>
+    <t>If approved stock goes to 90 and could go higher with good trials in other cancers</t>
+  </si>
+  <si>
+    <t>S.S. in PFS</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>chinese data</t>
+  </si>
+  <si>
+    <t>(mo)</t>
+  </si>
+  <si>
+    <t>search terms="PD-1/VEGF"</t>
+  </si>
+  <si>
+    <t>Phase Ib</t>
+  </si>
+  <si>
+    <t>Phase III</t>
+  </si>
+  <si>
+    <t>Phase II OLE</t>
+  </si>
+  <si>
+    <t>Preclinical?</t>
+  </si>
+  <si>
+    <t>NDA Late 2025-Early 2026 potentially</t>
+  </si>
+  <si>
+    <t>Patent</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Keytruda</t>
+  </si>
+  <si>
+    <t>pembrolizumab</t>
+  </si>
+  <si>
+    <t>Tagrisso</t>
+  </si>
+  <si>
+    <t>Rybrevant</t>
+  </si>
+  <si>
+    <t>amivantamab</t>
+  </si>
+  <si>
+    <t>BNT327</t>
+  </si>
+  <si>
+    <t>EFRG-mut T790M NSCLC</t>
+  </si>
+  <si>
+    <t>PD-1</t>
+  </si>
+  <si>
+    <t>TKI</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>US-20250228938-A1</t>
+  </si>
+  <si>
+    <t>THE COMBINATION OF MACROPHAGE-DIRECTED IMMUNOTHERAPY AND TARGETED AGENTS FOR TREATMENT OF CANCER</t>
+  </si>
+  <si>
+    <t>US-20250228966-A1</t>
+  </si>
+  <si>
+    <t>LIPID NANOPARTICLE FORMULATIONS AND COMPOSITIONS</t>
+  </si>
+  <si>
+    <t>US-20250179173-A1</t>
+  </si>
+  <si>
+    <t>COMBINATION THERAPY OF LILRB ANTAGONIST AND PD-1/PD-L1 AXIS INHIBITOR</t>
+  </si>
+  <si>
+    <t>US-20250180543-A1</t>
+  </si>
+  <si>
+    <t>COMPOSITIONS AND METHODS OF A HIGH-THROUGHPUT SCREEN TO IDENTIFY COMPOUNDS THAT ALTER MACROPHAGE-MEDIATED CYTOTOXICITY OF TARGET CELLS</t>
+  </si>
+  <si>
+    <t>US-12311033-B2</t>
+  </si>
+  <si>
+    <t>Lipid nanoparticle formulations and compositions</t>
+  </si>
+  <si>
+    <t>US-20250145701-A1</t>
+  </si>
+  <si>
+    <t>BISPECIFIC ANTIBODY AND APPLICATION THEREOF</t>
+  </si>
+  <si>
+    <t>US-20250144234-A1</t>
+  </si>
+  <si>
+    <t>RNA for In vivo Transfection with Increased Expression</t>
+  </si>
+  <si>
+    <t>US-20250127728-A1</t>
+  </si>
+  <si>
+    <t>Constrained Ionizable Cationic Lipids and Lipid Nanoparticles</t>
+  </si>
+  <si>
+    <t>US-20250073264-A1</t>
+  </si>
+  <si>
+    <t>CHIMERIC ANTIGEN RECEPTOR COMPRISING AN ANTI-HER2 ANTIBODY OR ANTIGEN-BINDING FRAGMENT THEREOF AND NATURAL KILLER CELLS COMPRISING THE SAME</t>
+  </si>
+  <si>
+    <t>US-12195527-B2</t>
+  </si>
+  <si>
+    <t>Anti-PD-1/VEGFA bifunctional antibody, pharmaceutical composition thereof</t>
+  </si>
+  <si>
+    <t>US-12194040-B2</t>
+  </si>
+  <si>
+    <t>FAK inhibitor and drug combination thereof</t>
+  </si>
+  <si>
+    <t>US-12194094-B2</t>
+  </si>
+  <si>
+    <t>Fusion constructs and methods of using thereof</t>
+  </si>
+  <si>
+    <t>US-20250009890-A1</t>
+  </si>
+  <si>
+    <t>TRANS-CYCLOOCTENE-MODIFIED BISPECIFIC ANTIBODIES</t>
+  </si>
+  <si>
+    <t>US-20240398982-A1</t>
+  </si>
+  <si>
+    <t>US-20240366663-A1</t>
+  </si>
+  <si>
+    <t>CHIMERIC ANTIGEN RECEPTOR COMPRISING AN ANTI-CD19 ANTIBODY OR ANTIGEN-BINDING FRAGMENT THEREOF AND NATURAL KILLER CELLS COMPRISING THE SAME</t>
+  </si>
+  <si>
+    <t>US-20240366664-A1</t>
+  </si>
+  <si>
+    <t>TREATMENT OF CANCER WITH NK CELLS AND AN EGFR TARGETED ANTIBODY</t>
+  </si>
+  <si>
+    <t>US-20240344138-A1</t>
+  </si>
+  <si>
+    <t>TARGETED THERAPIES IN CANCER</t>
+  </si>
+  <si>
+    <t>US-20240216505-A1</t>
+  </si>
+  <si>
+    <t>INDUCIBLE CYTOKINE PRODRUG AND PD-1/PD-L1 COMBINATION THERAPY</t>
+  </si>
+  <si>
+    <t>US-20240197778-A1</t>
+  </si>
+  <si>
+    <t>TREATMENT OF CANCER WITH NK CELLS AND A HER2 TARGETED ANTIBODY</t>
+  </si>
+  <si>
+    <t>US-20240180962-A1</t>
+  </si>
+  <si>
+    <t>TREATMENT OF CANCER WITH NK CELLS AND A CD20 TARGETED ANTIBODY</t>
+  </si>
+  <si>
+    <t>US-20240115704-A1</t>
+  </si>
+  <si>
+    <t>TREATMENT OF CANCER WITH NK CELLS AND A CD38-TARGETED ANTIBODY</t>
+  </si>
+  <si>
+    <t>US-20240060046-A1</t>
+  </si>
+  <si>
+    <t>EXPANDED AND STIMULATED NATURAL KILLER CELLS</t>
+  </si>
+  <si>
+    <t>US-20240043531-A1</t>
+  </si>
+  <si>
+    <t>ANTI-CD47 MONOCLONAL ANTIBODY AND USE THEREOF</t>
+  </si>
+  <si>
+    <t>US-11866476-B2</t>
+  </si>
+  <si>
+    <t>Masked IL-2-Fc fusion polypeptides</t>
+  </si>
+  <si>
+    <t>US-20240000840-A1</t>
+  </si>
+  <si>
+    <t>US-20230404907-A1</t>
+  </si>
+  <si>
+    <t>Monolithic Implantable Device for Sustained Release of an Antibody</t>
+  </si>
+  <si>
+    <t>US-11827685-B2</t>
+  </si>
+  <si>
+    <t>Masked cytokine polypeptides</t>
+  </si>
+  <si>
+    <t>US-11827686-B2</t>
+  </si>
+  <si>
+    <t>US-11718655-B2</t>
+  </si>
+  <si>
+    <t>Masked interleukin-12 polypeptides</t>
+  </si>
+  <si>
+    <t>US-20230235006-A1</t>
+  </si>
+  <si>
+    <t>Masked Cytokine Polypeptides</t>
+  </si>
+  <si>
+    <t>US-20230104358-A1</t>
+  </si>
+  <si>
+    <t>Refillable Implantable Device for Delivering a Drug Compound</t>
+  </si>
+  <si>
+    <t>US-20230030037-A1</t>
+  </si>
+  <si>
+    <t>MASKED CYTOKINE POLYPEPTIDES</t>
+  </si>
+  <si>
+    <t>US-20230028959-A1</t>
+  </si>
+  <si>
+    <t>US-20220340662-A1</t>
+  </si>
+  <si>
+    <t>COMBINATION OF MASKED CTLA4 AND PD1/PDL1 ANTIBODIES FOR TREATING CANCER</t>
+  </si>
+  <si>
+    <t>US-20220306716-A1</t>
+  </si>
+  <si>
+    <t>US-20220306743-A1</t>
+  </si>
+  <si>
+    <t>COMBINATION OF CTLA4 AND PD1/PDL1 ANTIBODIES FOR TREATING CANCER</t>
+  </si>
+  <si>
+    <t>US-20220220187-A1</t>
+  </si>
+  <si>
+    <t>CHIMERIC RECEPTOR THERAPY</t>
+  </si>
+  <si>
+    <t>US-20220125788-A1</t>
+  </si>
+  <si>
+    <t>US-20220023420-A1</t>
+  </si>
+  <si>
+    <t>FUSION CONSTRUCTS AND METHODS OF USING THEREOF</t>
+  </si>
+  <si>
+    <t>US-20220002370-A1</t>
+  </si>
+  <si>
+    <t>US-11053294-B2</t>
+  </si>
+  <si>
+    <t>US-20210137890-A1</t>
+  </si>
+  <si>
+    <t>DEUTERATED IMIDAZOLIDINEDIONE COMPOUNDS AND THEIR USES</t>
+  </si>
+  <si>
+    <t>US-20210002343-A1</t>
+  </si>
+  <si>
+    <t>US-20200261418-A1</t>
+  </si>
+  <si>
+    <t>HDAC INHIBITOR IN COMBINATION WITH IMMUNE CHECKPOINT MODULATOR FOR CANCER THERAPY</t>
+  </si>
+  <si>
+    <t>US-20190298696-A1</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>search terms="SMT112" OR "AK112"</t>
+  </si>
+  <si>
+    <t>US-20250230173-A1</t>
+  </si>
+  <si>
+    <t>SALT FORMS OF AN AXL INHIBITOR</t>
+  </si>
+  <si>
+    <t>US-20250186396-A1</t>
+  </si>
+  <si>
+    <t>COMPOSITIONS AND METHODS FOR THE TREATMENT OF GLIOBLASTOMA WITH A DUAL TARGETING ANTI-TUMOR COMPOSITION</t>
+  </si>
+  <si>
+    <t>US-12281147-B2</t>
+  </si>
+  <si>
+    <t>Interleukin 21 variants</t>
+  </si>
+  <si>
+    <t>US-20250082771-A1</t>
+  </si>
+  <si>
+    <t>DOSAGE REGIMEN OF AN ANTI-CDH6 ANTIBODY-DRUG CONJUGATE</t>
+  </si>
+  <si>
+    <t>US-20250059247-A1</t>
+  </si>
+  <si>
+    <t>INTERLEUKIN 21 VARIANTS</t>
+  </si>
+  <si>
+    <t>US-20250051474-A1</t>
+  </si>
+  <si>
+    <t>ANTI-CD97 ANTIBODIES AND ANTIBODY-DRUG CONJUGATES</t>
+  </si>
+  <si>
+    <t>US-20250009850-A1</t>
+  </si>
+  <si>
+    <t>PHARMACEUTICAL COMPOSITION COMPRISING HUMAN HYALURONIDASE PH20 AND DRUG</t>
+  </si>
+  <si>
+    <t>US-20250011318-A1</t>
+  </si>
+  <si>
+    <t>CBL-B INHIBITORS AND METHODS OF USE THEREOF</t>
+  </si>
+  <si>
+    <t>US-20240425497-A1</t>
+  </si>
+  <si>
+    <t>Cbl-b Inhibitors and Methods of Use Thereof</t>
+  </si>
+  <si>
+    <t>US-20240425607-A1</t>
+  </si>
+  <si>
+    <t>IL-18BP ANTAGONIST ANTIBODIES AND THEIR USE IN MONOTHERAPY AND COMBINATION THERAPY IN THE TREATMENT OF CANCER</t>
+  </si>
+  <si>
+    <t>US-20240309062-A1</t>
+  </si>
+  <si>
+    <t>INTERFERON ALPHA-2 VARIANTS</t>
+  </si>
+  <si>
+    <t>US-20240287091-A1</t>
+  </si>
+  <si>
+    <t>TRICYCLIC QUINOLONE BCL6 BIFUNCTIONAL DEGRADERS</t>
+  </si>
+  <si>
+    <t>US-20240238423-A9</t>
+  </si>
+  <si>
+    <t>TETRAHYDROISOQUINOLINE HETEROBIFUNCTIONAL BCL-XL DEGRADERS</t>
+  </si>
+  <si>
+    <t>US-20230390404-A1</t>
+  </si>
+  <si>
+    <t>US-20230365682-A1</t>
+  </si>
+  <si>
+    <t>COMBINATION THERAPY FOR TREATING COLORECTAL CANCER</t>
+  </si>
+  <si>
+    <t>Tevimbra</t>
+  </si>
+  <si>
+    <t>tislelizumab</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>osimertinib</t>
+  </si>
+  <si>
+    <t>NCT04988295</t>
+  </si>
+  <si>
+    <t>EGFR-mut NSCLC</t>
+  </si>
+  <si>
+    <t>EGFR-mut NSCLC 2L</t>
+  </si>
+  <si>
+    <t>KEYNOTE-789</t>
+  </si>
+  <si>
+    <t>NCT03515837</t>
+  </si>
+  <si>
+    <t>Failed / No effect</t>
+  </si>
+  <si>
+    <t>KEYNOTE-024</t>
+  </si>
+  <si>
+    <t>KEYNOTE-189</t>
+  </si>
+  <si>
+    <t>KEYNOTE-091/PEARLS</t>
+  </si>
+  <si>
+    <t>Treatment naiive NSCLC</t>
+  </si>
+  <si>
+    <t>IIB/III</t>
+  </si>
+  <si>
+    <t>8.8mo PFS vs 4.9mo; 22mo OS vs  10.7</t>
+  </si>
+  <si>
+    <t>pumitamig</t>
+  </si>
+  <si>
+    <t>PD-L1/VEGF-A</t>
+  </si>
+  <si>
+    <t>NSCLC, etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -444,6 +996,18 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -555,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,6 +1154,19 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -606,6 +1183,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>423130</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>498723</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2057D767-B572-5FEF-8863-6826DCBB3AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8475418" y="3172556"/>
+          <a:ext cx="2508132" cy="1355747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,7 +1557,15 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C47" dT="2025-08-22T10:38:49.42" personId="{28070B57-DEAE-4037-A739-BE132A2403C7}" id="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
+  <threadedComment ref="C65" dT="2025-08-22T10:38:49.42" personId="{28070B57-DEAE-4037-A739-BE132A2403C7}" id="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
+    <text>Based on HHS 500k/VSLY and 2month PFS added = 85k per patient; checks out with similar drug pricing in NSCLC</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C27" dT="2025-08-22T10:38:49.42" personId="{28070B57-DEAE-4037-A739-BE132A2403C7}" id="{B9AD64A1-4C53-4EC3-8C82-8A6A553ABDC4}">
     <text>Based on HHS 500k/VSLY and 2month PFS added = 85k per patient; checks out with similar drug pricing in NSCLC</text>
   </threadedComment>
 </ThreadedComments>
@@ -942,7 +1576,7 @@
   <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -983,7 +1617,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
@@ -993,10 +1627,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G3" s="11"/>
       <c r="J3" t="s">
@@ -1084,18 +1718,23 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -1103,6 +1742,9 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="J15" s="1" t="s">
         <v>36</v>
@@ -1115,13 +1757,13 @@
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="J17" s="21" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
@@ -1157,15 +1799,17 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J15" r:id="rId1" xr:uid="{D45A11AA-918E-4823-B464-6558787DE783}"/>
+    <hyperlink ref="B3" location="ivonescimab!A1" display="SMT112 (Ivonescimab)" xr:uid="{EA6BF972-ABF5-45BA-A9C6-B7C8489849B7}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{406F1F32-3AA2-4B4A-869A-6C9A1A7E82E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F650D413-CFD3-4A1F-80CE-CD6AC40E6084}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1254,6 +1898,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{84A00877-0D15-43F4-A7E8-2E6E40C92D33}"/>
@@ -1263,17 +1912,792 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E32738-F68A-4E0D-8E8E-F15FC17A86AB}">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FFE973-AB30-487E-B23B-C4F1E65C1200}">
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="26">
+        <v>45855</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="26">
+        <v>45855</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="26">
+        <v>45813</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="26">
+        <v>45813</v>
+      </c>
+      <c r="F7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="26">
+        <v>45804</v>
+      </c>
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="26">
+        <v>45785</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="26">
+        <v>45785</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="26">
+        <v>45771</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="26">
+        <v>45722</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="26">
+        <v>45671</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="26">
+        <v>45671</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="26">
+        <v>45671</v>
+      </c>
+      <c r="F15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="26">
+        <v>45666</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="26">
+        <v>45631</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="26">
+        <v>45603</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="26">
+        <v>45603</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="26">
+        <v>45582</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="26">
+        <v>45477</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="26">
+        <v>45463</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="26">
+        <v>45449</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="26">
+        <v>45393</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="26">
+        <v>45344</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="26">
+        <v>45330</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="26">
+        <v>45300</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="26">
+        <v>45295</v>
+      </c>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="26">
+        <v>45281</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="26">
+        <v>45258</v>
+      </c>
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="26">
+        <v>45258</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="26">
+        <v>45146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="26">
+        <v>45134</v>
+      </c>
+      <c r="F33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="26">
+        <v>45022</v>
+      </c>
+      <c r="F34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="26">
+        <v>44959</v>
+      </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="26">
+        <v>44952</v>
+      </c>
+      <c r="F36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="26">
+        <v>44861</v>
+      </c>
+      <c r="F37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44833</v>
+      </c>
+      <c r="F38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="26">
+        <v>44833</v>
+      </c>
+      <c r="F39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="26">
+        <v>44756</v>
+      </c>
+      <c r="F40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="26">
+        <v>44679</v>
+      </c>
+      <c r="F41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="26">
+        <v>44588</v>
+      </c>
+      <c r="F42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="26">
+        <v>44567</v>
+      </c>
+      <c r="F43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="26">
+        <v>44383</v>
+      </c>
+      <c r="F44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="26">
+        <v>44329</v>
+      </c>
+      <c r="F45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="26">
+        <v>44203</v>
+      </c>
+      <c r="F46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" s="26">
+        <v>44063</v>
+      </c>
+      <c r="F47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" s="26">
+        <v>43741</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="26">
+        <v>45855</v>
+      </c>
+      <c r="F51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" s="26">
+        <v>45855</v>
+      </c>
+      <c r="F52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="26">
+        <v>45820</v>
+      </c>
+      <c r="F53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="26">
+        <v>45813</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="26">
+        <v>45785</v>
+      </c>
+      <c r="F55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="26">
+        <v>45771</v>
+      </c>
+      <c r="F56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" s="26">
+        <v>45769</v>
+      </c>
+      <c r="F57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="26">
+        <v>45729</v>
+      </c>
+      <c r="F58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59" s="26">
+        <v>45708</v>
+      </c>
+      <c r="F59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" s="26">
+        <v>45701</v>
+      </c>
+      <c r="F60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="26">
+        <v>45671</v>
+      </c>
+      <c r="F61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="26">
+        <v>45666</v>
+      </c>
+      <c r="F62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="26">
+        <v>45666</v>
+      </c>
+      <c r="F63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="26">
+        <v>45652</v>
+      </c>
+      <c r="F64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="26">
+        <v>45652</v>
+      </c>
+      <c r="F65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="26">
+        <v>45554</v>
+      </c>
+      <c r="F66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="26">
+        <v>45533</v>
+      </c>
+      <c r="F67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="26">
+        <v>45491</v>
+      </c>
+      <c r="F68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="26">
+        <v>45267</v>
+      </c>
+      <c r="F69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="26">
+        <v>45246</v>
+      </c>
+      <c r="F70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{16AA7B9B-92A0-4E4A-8E90-BF9CC28FBA51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E32738-F68A-4E0D-8E8E-F15FC17A86AB}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1302,124 +2726,128 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>73</v>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
-        <v>73</v>
+      <c r="C5" s="2">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>4</v>
       </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
-        <v>57</v>
+      <c r="C15" s="2">
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="2"/>
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>57</v>
+      <c r="C19" s="2">
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
-        <v>57</v>
+      <c r="C20" s="2">
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>58</v>
+      <c r="C21" s="2">
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
@@ -1427,87 +2855,101 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>145</v>
+      </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>5</v>
       </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
@@ -1544,9 +2986,6 @@
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1556,12 +2995,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA6D23-FFB8-4503-932E-AC23E51838F4}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,14 +3008,15 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1584,15 +3024,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1600,15 +3040,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1616,512 +3056,1279 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="20" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31">
+        <v>11.14</v>
+      </c>
+      <c r="E31">
+        <v>5.82</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="D32">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="E35" s="23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C38" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C39" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D41" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="D42">
+        <v>7.1</v>
+      </c>
+      <c r="E42">
+        <v>4.8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44">
+        <v>6.6</v>
+      </c>
+      <c r="E44">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E45" s="6">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46">
+        <v>0.46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="D47" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="F34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="E36" s="6">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37">
-        <v>0.46</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C40" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C43" s="6" t="s">
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C49" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C53" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C54" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C55" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C59" s="20"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C61" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C44" s="6" t="s">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C62" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C45">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C63">
         <v>2025</v>
       </c>
-      <c r="D45">
-        <f>C45+1</f>
+      <c r="D63">
+        <f>C63+1</f>
         <v>2026</v>
       </c>
-      <c r="E45">
-        <f t="shared" ref="E45:O45" si="0">D45+1</f>
+      <c r="E63">
+        <f t="shared" ref="E63:P63" si="0">D63+1</f>
         <v>2027</v>
       </c>
-      <c r="F45">
+      <c r="F63">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="G45">
+      <c r="G63">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="H45">
+      <c r="H63">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="I45">
+      <c r="I63">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="J45">
+      <c r="J63">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="K45">
+      <c r="K63">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="L45">
+      <c r="L63">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="M45">
+      <c r="M63">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="N45">
+      <c r="N63">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="O45">
+      <c r="O63">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C64" s="5">
         <v>500000</v>
       </c>
-      <c r="D46" s="5">
-        <f>C46*1.01</f>
+      <c r="D64" s="5">
+        <f>C64*1.01</f>
         <v>505000</v>
       </c>
-      <c r="E46" s="5">
-        <f t="shared" ref="E46:O46" si="1">D46*1.01</f>
+      <c r="E64" s="5">
+        <f t="shared" ref="E64:P64" si="1">D64*1.01</f>
         <v>510050</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F64" s="5">
         <f t="shared" si="1"/>
         <v>515150.5</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G64" s="5">
         <f t="shared" si="1"/>
         <v>520302.005</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H64" s="5">
         <f t="shared" si="1"/>
         <v>525505.02505000005</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I64" s="5">
         <f t="shared" si="1"/>
         <v>530760.07530050003</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J64" s="5">
         <f t="shared" si="1"/>
         <v>536067.67605350504</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K64" s="5">
         <f t="shared" si="1"/>
         <v>541428.35281404015</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L64" s="5">
         <f t="shared" si="1"/>
         <v>546842.63634218054</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M64" s="5">
         <f t="shared" si="1"/>
         <v>552311.06270560238</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N64" s="5">
         <f t="shared" si="1"/>
         <v>557834.17333265836</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O64" s="5">
         <f t="shared" si="1"/>
         <v>563412.51506598492</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="P64" s="5">
+        <f t="shared" si="1"/>
+        <v>569046.64021664474</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C65" s="5">
         <v>85000</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D65" s="5">
         <v>85000</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E65" s="5">
         <v>85000</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F65" s="5">
         <v>85000</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G65" s="5">
         <v>85000</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H65" s="5">
         <v>85000</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I65" s="5">
         <v>85000</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J65" s="5">
         <v>85000</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K65" s="5">
         <v>85000</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L65" s="5">
         <v>85000</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M65" s="5">
         <v>85000</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N65" s="5">
         <v>85000</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O65" s="5">
         <v>85000</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="P65" s="5">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="5">
-        <f>C46*0.2</f>
-        <v>100000</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" ref="D48:O48" si="2">D46*0.2</f>
-        <v>101000</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="C66" s="5">
+        <f>C64*0.25</f>
+        <v>125000</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" ref="D66:O66" si="2">D64*0.25</f>
+        <v>126250</v>
+      </c>
+      <c r="E66" s="5">
         <f t="shared" si="2"/>
-        <v>102010</v>
-      </c>
-      <c r="F48" s="5">
+        <v>127512.5</v>
+      </c>
+      <c r="F66" s="5">
         <f t="shared" si="2"/>
-        <v>103030.1</v>
-      </c>
-      <c r="G48" s="5">
+        <v>128787.625</v>
+      </c>
+      <c r="G66" s="5">
         <f t="shared" si="2"/>
-        <v>104060.40100000001</v>
-      </c>
-      <c r="H48" s="5">
+        <v>130075.50125</v>
+      </c>
+      <c r="H66" s="5">
         <f t="shared" si="2"/>
-        <v>105101.00501000002</v>
-      </c>
-      <c r="I48" s="5">
+        <v>131376.25626250001</v>
+      </c>
+      <c r="I66" s="5">
         <f t="shared" si="2"/>
-        <v>106152.01506010001</v>
-      </c>
-      <c r="J48" s="5">
+        <v>132690.01882512501</v>
+      </c>
+      <c r="J66" s="5">
         <f t="shared" si="2"/>
-        <v>107213.53521070101</v>
-      </c>
-      <c r="K48" s="5">
+        <v>134016.91901337626</v>
+      </c>
+      <c r="K66" s="5">
         <f t="shared" si="2"/>
-        <v>108285.67056280804</v>
-      </c>
-      <c r="L48" s="5">
+        <v>135357.08820351004</v>
+      </c>
+      <c r="L66" s="5">
         <f t="shared" si="2"/>
-        <v>109368.52726843611</v>
-      </c>
-      <c r="M48" s="5">
+        <v>136710.65908554514</v>
+      </c>
+      <c r="M66" s="5">
         <f t="shared" si="2"/>
-        <v>110462.21254112048</v>
-      </c>
-      <c r="N48" s="5">
+        <v>138077.7656764006</v>
+      </c>
+      <c r="N66" s="5">
         <f t="shared" si="2"/>
-        <v>111566.83466653168</v>
-      </c>
-      <c r="O48" s="5">
+        <v>139458.54333316459</v>
+      </c>
+      <c r="O66" s="5">
         <f t="shared" si="2"/>
-        <v>112682.50301319698</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+        <v>140853.12876649623</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" ref="P66" si="3">P64*0.25</f>
+        <v>142261.66005416118</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="5">
-        <f>(C48*C47)/1000000*0.6</f>
-        <v>5100</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" ref="D49:O49" si="3">(D48*D47)/1000000*0.6</f>
-        <v>5151</v>
-      </c>
-      <c r="E49" s="5">
-        <f t="shared" si="3"/>
-        <v>5202.51</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="3"/>
-        <v>5254.5350999999991</v>
-      </c>
-      <c r="G49" s="5">
-        <f t="shared" si="3"/>
-        <v>5307.0804510000007</v>
-      </c>
-      <c r="H49" s="5">
-        <f t="shared" si="3"/>
-        <v>5360.1512555100007</v>
-      </c>
-      <c r="I49" s="5">
-        <f t="shared" si="3"/>
-        <v>5413.752768065101</v>
-      </c>
-      <c r="J49" s="5">
-        <f t="shared" si="3"/>
-        <v>5467.8902957457512</v>
-      </c>
-      <c r="K49" s="5">
-        <f t="shared" si="3"/>
-        <v>5522.5691987032096</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="3"/>
-        <v>5577.794890690242</v>
-      </c>
-      <c r="M49" s="5">
-        <f t="shared" si="3"/>
-        <v>5633.5728395971446</v>
-      </c>
-      <c r="N49" s="5">
-        <f t="shared" si="3"/>
-        <v>5689.9085679931159</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" si="3"/>
-        <v>5746.8076536730468</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:P67" si="4">(D66*D65)/1000000*0.8</f>
+        <v>8585</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="4"/>
+        <v>8670.85</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="4"/>
+        <v>8757.558500000001</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="4"/>
+        <v>8845.1340849999997</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" si="4"/>
+        <v>8933.5854258500021</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="4"/>
+        <v>9022.9212801085014</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="4"/>
+        <v>9113.1504929095863</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="4"/>
+        <v>9204.2819978386815</v>
+      </c>
+      <c r="L67" s="5">
+        <f t="shared" si="4"/>
+        <v>9296.3248178170688</v>
+      </c>
+      <c r="M67" s="5">
+        <f t="shared" si="4"/>
+        <v>9389.2880659952407</v>
+      </c>
+      <c r="N67" s="5">
+        <f t="shared" si="4"/>
+        <v>9483.1809466551931</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="4"/>
+        <v>9578.0127561217432</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" si="4"/>
+        <v>9673.7928836829615</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="6">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+      <c r="D69" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="19">
-        <f>NPV(D51,C49:O49)</f>
-        <v>40084.614952223288</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+      <c r="D70" s="19">
+        <f>NPV(D69,C67:P67)*0.3</f>
+        <v>19811.09562416884</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="4">
-        <f>D52/Main!K3</f>
-        <v>53.960817154095572</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D54" s="6">
-        <f>D53/Main!K2-1</f>
-        <v>1.0210043877938415</v>
+      <c r="D71" s="4">
+        <f>D70/Main!K3</f>
+        <v>26.669157477806444</v>
+      </c>
+      <c r="E71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D72" s="6">
+        <f>D71/Main!K2-1</f>
+        <v>-1.1551506439534398E-3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A766823E-8D5C-44B8-80CA-E95AD45ACE31}"/>
+    <hyperlink ref="C9" location="competitors!A1" display="Keytruda (pembrolizumab) PD-1 inhibitor; BNT327 PD-L1/VEGF; Tagrisso TKI, Rybrevant (amivantamab)" xr:uid="{08C05697-4D55-4A32-94E7-C3A0B31E0318}"/>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{23E5B0E9-4B0A-4BA5-8577-1B35BB4D122A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A50696-A04D-4144-AAFE-A6BDDDF98F37}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>2025</v>
+      </c>
+      <c r="D25">
+        <f>C25+1</f>
+        <v>2026</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:P25" si="0">D25+1</f>
+        <v>2027</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5">
+        <v>500000</v>
+      </c>
+      <c r="D26" s="5">
+        <f>C26*1.01</f>
+        <v>505000</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:P26" si="1">D26*1.01</f>
+        <v>510050</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>515150.5</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>520302.005</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>525505.02505000005</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="1"/>
+        <v>530760.07530050003</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
+        <v>536067.67605350504</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>541428.35281404015</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="1"/>
+        <v>546842.63634218054</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>552311.06270560238</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="1"/>
+        <v>557834.17333265836</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="1"/>
+        <v>563412.51506598492</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="1"/>
+        <v>569046.64021664474</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="F27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="G27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="H27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="I27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="J27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="K27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="L27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="M27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="N27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="O27" s="5">
+        <v>85000</v>
+      </c>
+      <c r="P27" s="5">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5">
+        <f>C26*0.25</f>
+        <v>125000</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:P28" si="2">D26*0.25</f>
+        <v>126250</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="2"/>
+        <v>127512.5</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>128787.625</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="2"/>
+        <v>130075.50125</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="2"/>
+        <v>131376.25626250001</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="2"/>
+        <v>132690.01882512501</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="2"/>
+        <v>134016.91901337626</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="2"/>
+        <v>135357.08820351004</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="2"/>
+        <v>136710.65908554514</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="2"/>
+        <v>138077.7656764006</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="2"/>
+        <v>139458.54333316459</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="2"/>
+        <v>140853.12876649623</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="2"/>
+        <v>142261.66005416118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:P29" si="3">(D28*D27)/1000000*0.8</f>
+        <v>8585</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="3"/>
+        <v>8670.85</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="3"/>
+        <v>8757.558500000001</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="3"/>
+        <v>8845.1340849999997</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="3"/>
+        <v>8933.5854258500021</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="3"/>
+        <v>9022.9212801085014</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="3"/>
+        <v>9113.1504929095863</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="3"/>
+        <v>9204.2819978386815</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="3"/>
+        <v>9296.3248178170688</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="3"/>
+        <v>9389.2880659952407</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="3"/>
+        <v>9483.1809466551931</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="3"/>
+        <v>9578.0127561217432</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="3"/>
+        <v>9673.7928836829615</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{FF336A62-FC4F-42FE-AFB4-AD361AC680A5}"/>
+    <hyperlink ref="C34" r:id="rId1" xr:uid="{28CB01FE-08C4-4CAE-A339-C2EDE34C271E}"/>
+    <hyperlink ref="C33" r:id="rId2" xr:uid="{0CE53D00-5525-4FF3-BBBF-382BD630271C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4273DA17-6A48-4469-9999-419CD253A111}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="20"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CED45B77-8F6E-45BE-BBCA-3DBFD821C08A}"/>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{7636961B-14DD-4B00-B82C-23FC05CB9686}"/>
+    <hyperlink ref="E17" r:id="rId2" xr:uid="{6F52E31D-79C4-4056-9310-3AFB515ACD65}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{B3DCC21A-01D9-4408-9717-DB4D33D9E8AD}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{66FAC21C-A65D-4BD7-947C-E97888B929CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SMMT.xlsx
+++ b/SMMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5025B9-E2DD-4146-B2D2-838D9E15BF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A4394-EA24-438B-A54B-A2C35E4D3F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="930" windowWidth="22200" windowHeight="14685" activeTab="6" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
+    <workbookView xWindow="2445" yWindow="780" windowWidth="22200" windowHeight="14685" activeTab="4" xr2:uid="{BBF63277-87D8-48DC-9C79-F51393ACF442}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>tc={3F18F28E-0E0F-4FAA-9681-D6E3922A5740}</author>
   </authors>
   <commentList>
-    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="300">
   <si>
     <t>Main</t>
   </si>
@@ -332,9 +332,6 @@
     <t>NSCLC w/ EGFR-mut advanced or metastatic who failed to EGFR-TKI treatment</t>
   </si>
   <si>
-    <t>"not mature"</t>
-  </si>
-  <si>
     <t>Regulatory</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>TLDR</t>
   </si>
   <si>
-    <t>~20% NSCLC have EGFR-mutations</t>
-  </si>
-  <si>
     <t>NCT02151981</t>
   </si>
   <si>
@@ -954,6 +948,36 @@
   </si>
   <si>
     <t>NSCLC, etc.</t>
+  </si>
+  <si>
+    <t>Interim Data</t>
+  </si>
+  <si>
+    <t>p=0.057</t>
+  </si>
+  <si>
+    <t>2L EGFRm NSCLC</t>
+  </si>
+  <si>
+    <t>"not mature" 0.80 HR at 52% data maturity</t>
+  </si>
+  <si>
+    <t>24% of NSCLC in NA is EGFRm</t>
+  </si>
+  <si>
+    <t>2L = 75%</t>
+  </si>
+  <si>
+    <t>100% of 2L EGFRm NSCLC is worth ~11.5B; this weak data suggests prob &lt; 50% and maybe &lt;50% market capture, at max 3B worth</t>
+  </si>
+  <si>
+    <t>ALL NSCLC</t>
+  </si>
+  <si>
+    <t>EGFRm</t>
+  </si>
+  <si>
+    <t>2L EGFRm</t>
   </si>
 </sst>
 </file>
@@ -963,7 +987,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -998,12 +1022,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1119,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1162,11 +1180,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1191,13 +1210,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>423130</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>109902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>498723</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>14918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1557,7 +1576,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C65" dT="2025-08-22T10:38:49.42" personId="{28070B57-DEAE-4037-A739-BE132A2403C7}" id="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
+  <threadedComment ref="C69" dT="2025-08-22T10:38:49.42" personId="{28070B57-DEAE-4037-A739-BE132A2403C7}" id="{3F18F28E-0E0F-4FAA-9681-D6E3922A5740}">
     <text>Based on HHS 500k/VSLY and 2month PFS added = 85k per patient; checks out with similar drug pricing in NSCLC</text>
   </threadedComment>
 </ThreadedComments>
@@ -1630,7 +1649,7 @@
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="11"/>
       <c r="J3" t="s">
@@ -1719,7 +1738,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1728,13 +1747,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -1743,7 +1762,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2"/>
       <c r="J15" s="1" t="s">
@@ -1757,13 +1776,13 @@
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="J17" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
@@ -1900,7 +1919,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1936,16 +1955,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1953,502 +1972,502 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="26">
         <v>45855</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" s="26">
         <v>45855</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="26">
         <v>45813</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="26">
         <v>45813</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8" s="26">
         <v>45804</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="26">
         <v>45785</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" s="26">
         <v>45785</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E11" s="26">
         <v>45771</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" s="26">
         <v>45722</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" s="26">
         <v>45671</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="26">
         <v>45671</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" s="26">
         <v>45671</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="26">
         <v>45666</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17" s="26">
         <v>45631</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E18" s="26">
         <v>45603</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E19" s="26">
         <v>45603</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" s="26">
         <v>45582</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E21" s="26">
         <v>45477</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E22" s="26">
         <v>45463</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E23" s="26">
         <v>45449</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E24" s="26">
         <v>45393</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E25" s="26">
         <v>45344</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" s="26">
         <v>45330</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E27" s="26">
         <v>45300</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E28" s="26">
         <v>45295</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E29" s="26">
         <v>45281</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E30" s="26">
         <v>45258</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E31" s="26">
         <v>45258</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E32" s="26">
         <v>45146</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E33" s="26">
         <v>45134</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E34" s="26">
         <v>45022</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E35" s="26">
         <v>44959</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E36" s="26">
         <v>44952</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E37" s="26">
         <v>44861</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E38" s="26">
         <v>44833</v>
       </c>
       <c r="F38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E39" s="26">
         <v>44833</v>
       </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E40" s="26">
         <v>44756</v>
       </c>
       <c r="F40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E41" s="26">
         <v>44679</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E42" s="26">
         <v>44588</v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E43" s="26">
         <v>44567</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E44" s="26">
         <v>44383</v>
       </c>
       <c r="F44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E45" s="26">
         <v>44329</v>
       </c>
       <c r="F45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E46" s="26">
         <v>44203</v>
       </c>
       <c r="F46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E47" s="26">
         <v>44063</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E48" s="26">
         <v>43741</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -2458,222 +2477,222 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E51" s="26">
         <v>45855</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E52" s="26">
         <v>45855</v>
       </c>
       <c r="F52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E53" s="26">
         <v>45820</v>
       </c>
       <c r="F53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E54" s="26">
         <v>45813</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E55" s="26">
         <v>45785</v>
       </c>
       <c r="F55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E56" s="26">
         <v>45771</v>
       </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E57" s="26">
         <v>45769</v>
       </c>
       <c r="F57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E58" s="26">
         <v>45729</v>
       </c>
       <c r="F58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E59" s="26">
         <v>45708</v>
       </c>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E60" s="26">
         <v>45701</v>
       </c>
       <c r="F60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E61" s="26">
         <v>45671</v>
       </c>
       <c r="F61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E62" s="26">
         <v>45666</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E63" s="26">
         <v>45666</v>
       </c>
       <c r="F63" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E64" s="26">
         <v>45652</v>
       </c>
       <c r="F64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E65" s="26">
         <v>45652</v>
       </c>
       <c r="F65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E66" s="26">
         <v>45554</v>
       </c>
       <c r="F66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E67" s="26">
         <v>45533</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E68" s="26">
         <v>45491</v>
       </c>
       <c r="F68" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E69" s="26">
         <v>45267</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E70" s="26">
         <v>45246</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2690,7 +2709,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -2755,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
@@ -2914,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
         <v>47</v>
@@ -2925,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
         <v>46</v>
@@ -2936,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
         <v>45</v>
@@ -2948,7 +2967,7 @@
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -2997,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA6D23-FFB8-4503-932E-AC23E51838F4}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3011,12 +3030,12 @@
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -3024,7 +3043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -3032,7 +3051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3040,7 +3059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -3056,679 +3075,764 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
         <v>118</v>
       </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
       <c r="E13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="4">
+        <f>11500*0.5*0.5</f>
+        <v>2875</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>125</v>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17">
+        <v>0.79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" s="20" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" t="s">
-        <v>116</v>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" s="20" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" t="s">
-        <v>117</v>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" s="20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="20"/>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" t="s">
-        <v>106</v>
+      <c r="C30" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31">
-        <v>11.14</v>
-      </c>
-      <c r="E31">
-        <v>5.82</v>
-      </c>
-      <c r="G31" t="s">
-        <v>107</v>
+      <c r="C31" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>11.14</v>
+      </c>
+      <c r="E34">
+        <v>5.82</v>
+      </c>
+      <c r="G34" t="s">
         <v>105</v>
       </c>
-      <c r="D32">
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35">
         <v>0.51</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D36" s="6">
         <v>0.5</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E36" s="22">
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="22">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0.70499999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="E38" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E39" s="23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="F39" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C38" s="20" t="s">
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D44" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>7.1</v>
+      </c>
+      <c r="E45">
+        <v>4.8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47">
+        <v>6.6</v>
+      </c>
+      <c r="E47">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E48" s="6">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49">
+        <v>0.46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C39" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D41" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42">
-        <v>7.1</v>
-      </c>
-      <c r="E42">
-        <v>4.8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="F43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44">
-        <v>6.6</v>
-      </c>
-      <c r="E44">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="E45" s="6">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46">
-        <v>0.46</v>
-      </c>
-      <c r="F46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C49" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C53" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C54" s="20" t="s">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C55" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C58" s="20"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C59" s="20"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C61" s="6" t="s">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="20"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C62" s="6" t="s">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C65" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C63">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C66" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C67">
         <v>2025</v>
       </c>
-      <c r="D63">
-        <f>C63+1</f>
+      <c r="D67">
+        <f>C67+1</f>
         <v>2026</v>
       </c>
-      <c r="E63">
-        <f t="shared" ref="E63:P63" si="0">D63+1</f>
+      <c r="E67">
+        <f t="shared" ref="E67:P67" si="0">D67+1</f>
         <v>2027</v>
       </c>
-      <c r="F63">
+      <c r="F67">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="G63">
+      <c r="G67">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="H63">
+      <c r="H67">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="I63">
+      <c r="I67">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="J63">
+      <c r="J67">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="K63">
+      <c r="K67">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="L63">
+      <c r="L67">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="M63">
+      <c r="M67">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="N63">
+      <c r="N67">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="O63">
+      <c r="O67">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="P63">
+      <c r="P67">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C68" s="5">
         <v>500000</v>
       </c>
-      <c r="D64" s="5">
-        <f>C64*1.01</f>
+      <c r="D68" s="5">
+        <f>C68*1.01</f>
         <v>505000</v>
       </c>
-      <c r="E64" s="5">
-        <f t="shared" ref="E64:P64" si="1">D64*1.01</f>
+      <c r="E68" s="5">
+        <f t="shared" ref="E68:P68" si="1">D68*1.01</f>
         <v>510050</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F68" s="5">
         <f t="shared" si="1"/>
         <v>515150.5</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G68" s="5">
         <f t="shared" si="1"/>
         <v>520302.005</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H68" s="5">
         <f t="shared" si="1"/>
         <v>525505.02505000005</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I68" s="5">
         <f t="shared" si="1"/>
         <v>530760.07530050003</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J68" s="5">
         <f t="shared" si="1"/>
         <v>536067.67605350504</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K68" s="5">
         <f t="shared" si="1"/>
         <v>541428.35281404015</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L68" s="5">
         <f t="shared" si="1"/>
         <v>546842.63634218054</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M68" s="5">
         <f t="shared" si="1"/>
         <v>552311.06270560238</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N68" s="5">
         <f t="shared" si="1"/>
         <v>557834.17333265836</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O68" s="5">
         <f t="shared" si="1"/>
         <v>563412.51506598492</v>
       </c>
-      <c r="P64" s="5">
+      <c r="P68" s="5">
         <f t="shared" si="1"/>
         <v>569046.64021664474</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C69" s="5">
         <v>85000</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D69" s="5">
         <v>85000</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E69" s="5">
         <v>85000</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F69" s="5">
         <v>85000</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G69" s="5">
         <v>85000</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H69" s="5">
         <v>85000</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I69" s="5">
         <v>85000</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J69" s="5">
         <v>85000</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K69" s="5">
         <v>85000</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L69" s="5">
         <v>85000</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M69" s="5">
         <v>85000</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N69" s="5">
         <v>85000</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O69" s="5">
         <v>85000</v>
       </c>
-      <c r="P65" s="5">
+      <c r="P69" s="5">
         <v>85000</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="5">
-        <f>C64*0.25</f>
+      <c r="C70" s="5">
+        <f>C68*0.25</f>
         <v>125000</v>
       </c>
-      <c r="D66" s="5">
-        <f t="shared" ref="D66:O66" si="2">D64*0.25</f>
+      <c r="D70" s="5">
+        <f t="shared" ref="D70:O70" si="2">D68*0.25</f>
         <v>126250</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E70" s="5">
         <f t="shared" si="2"/>
         <v>127512.5</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F70" s="5">
         <f t="shared" si="2"/>
         <v>128787.625</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G70" s="5">
         <f t="shared" si="2"/>
         <v>130075.50125</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H70" s="5">
         <f t="shared" si="2"/>
         <v>131376.25626250001</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I70" s="5">
         <f t="shared" si="2"/>
         <v>132690.01882512501</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J70" s="5">
         <f t="shared" si="2"/>
         <v>134016.91901337626</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K70" s="5">
         <f t="shared" si="2"/>
         <v>135357.08820351004</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L70" s="5">
         <f t="shared" si="2"/>
         <v>136710.65908554514</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M70" s="5">
         <f t="shared" si="2"/>
         <v>138077.7656764006</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N70" s="5">
         <f t="shared" si="2"/>
         <v>139458.54333316459</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O70" s="5">
         <f t="shared" si="2"/>
         <v>140853.12876649623</v>
       </c>
-      <c r="P66" s="5">
-        <f t="shared" ref="P66" si="3">P64*0.25</f>
+      <c r="P70" s="5">
+        <f t="shared" ref="P70" si="3">P68*0.25</f>
         <v>142261.66005416118</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C71" s="5">
         <v>0</v>
       </c>
-      <c r="D67" s="5">
-        <f t="shared" ref="D67:P67" si="4">(D66*D65)/1000000*0.8</f>
+      <c r="D71" s="5">
+        <f t="shared" ref="D71:P71" si="4">(D70*D69)/1000000*0.8</f>
         <v>8585</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E71" s="5">
         <f t="shared" si="4"/>
         <v>8670.85</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F71" s="5">
         <f t="shared" si="4"/>
         <v>8757.558500000001</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G71" s="5">
         <f t="shared" si="4"/>
         <v>8845.1340849999997</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H71" s="5">
         <f t="shared" si="4"/>
         <v>8933.5854258500021</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I71" s="5">
         <f t="shared" si="4"/>
         <v>9022.9212801085014</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J71" s="5">
         <f t="shared" si="4"/>
         <v>9113.1504929095863</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K71" s="5">
         <f t="shared" si="4"/>
         <v>9204.2819978386815</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L71" s="5">
         <f t="shared" si="4"/>
         <v>9296.3248178170688</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M71" s="5">
         <f t="shared" si="4"/>
         <v>9389.2880659952407</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N71" s="5">
         <f t="shared" si="4"/>
         <v>9483.1809466551931</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O71" s="5">
         <f t="shared" si="4"/>
         <v>9578.0127561217432</v>
       </c>
-      <c r="P67" s="5">
+      <c r="P71" s="5">
         <f t="shared" si="4"/>
         <v>9673.7928836829615</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D73" s="6">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
+      <c r="F73" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="19">
-        <f>NPV(D69,C67:P67)*0.3</f>
+      <c r="D74" s="19">
+        <f>NPV(D73,C71:P71)</f>
+        <v>66036.985413896138</v>
+      </c>
+      <c r="E74" s="4">
+        <f>D74*0.3</f>
         <v>19811.09562416884</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
+      <c r="F74" s="4">
+        <f>D74*0.24</f>
+        <v>15848.876499335072</v>
+      </c>
+      <c r="G74" s="4">
+        <f>F74*0.75</f>
+        <v>11886.657374501305</v>
+      </c>
+      <c r="H74" s="4">
+        <f>G74*0.3</f>
+        <v>3565.9972123503912</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="4">
-        <f>D70/Main!K3</f>
-        <v>26.669157477806444</v>
-      </c>
-      <c r="E71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D72" s="6">
-        <f>D71/Main!K2-1</f>
-        <v>-1.1551506439534398E-3</v>
-      </c>
-      <c r="E72" t="s">
-        <v>137</v>
+      <c r="D75" s="4">
+        <f>D74/Main!K3</f>
+        <v>88.897191592688145</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D76" s="6">
+        <f>D75/Main!K2-1</f>
+        <v>2.3294828311868221</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D78" s="4">
+        <f>D74*0.3</f>
+        <v>19811.09562416884</v>
+      </c>
+      <c r="E78" s="4">
+        <f>D78+F16</f>
+        <v>22686.09562416884</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E79" s="4">
+        <f>E78/Main!K3</f>
+        <v>30.539404192236216</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E80" s="6">
+        <f>E79/Main!K2-1</f>
+        <v>0.14379790982158114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A766823E-8D5C-44B8-80CA-E95AD45ACE31}"/>
     <hyperlink ref="C9" location="competitors!A1" display="Keytruda (pembrolizumab) PD-1 inhibitor; BNT327 PD-L1/VEGF; Tagrisso TKI, Rybrevant (amivantamab)" xr:uid="{08C05697-4D55-4A32-94E7-C3A0B31E0318}"/>
-    <hyperlink ref="C17" r:id="rId1" xr:uid="{23E5B0E9-4B0A-4BA5-8577-1B35BB4D122A}"/>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{23E5B0E9-4B0A-4BA5-8577-1B35BB4D122A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4046,7 +4150,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -4074,7 +4178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4273DA17-6A48-4469-9999-419CD253A111}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4110,70 +4214,70 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
         <v>157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>2</v>
@@ -4182,31 +4286,31 @@
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -4214,16 +4318,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -4234,13 +4338,13 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" t="s">
         <v>277</v>
-      </c>
-      <c r="D17" t="s">
-        <v>279</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>82</v>
@@ -4251,51 +4355,51 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>278</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>280</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -4303,16 +4407,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" t="s">
         <v>285</v>
-      </c>
-      <c r="G22" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
